--- a/yahoo_keeper_2021/2021_Fantasy_Football_Draft.xlsx
+++ b/yahoo_keeper_2021/2021_Fantasy_Football_Draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcyee\Desktop\Untitled Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcyee\Desktop\yahoo_keeper_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6E3B90-F5D1-4C03-844A-8739A2B7C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1704852-2BF1-493B-993B-56082AB4C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1098" yWindow="1098" windowWidth="17280" windowHeight="8994" xr2:uid="{C2EEBDAB-B4CA-4B03-9A8B-6965BC2A41E5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{C2EEBDAB-B4CA-4B03-9A8B-6965BC2A41E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>Darrell Henderson Jr.</t>
   </si>
   <si>
-    <t>TJ Hockinson</t>
-  </si>
-  <si>
     <t>Aaron Rodgers</t>
   </si>
   <si>
@@ -1433,6 +1430,9 @@
   </si>
   <si>
     <t>J.K. Dobbins</t>
+  </si>
+  <si>
+    <t>T.J. Hockenson</t>
   </si>
 </sst>
 </file>
@@ -1791,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCAA24F-DD14-40EB-A1FE-B90F8F5638DF}">
   <dimension ref="A1:G238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1837,10 +1837,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>27</v>
@@ -1849,7 +1849,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1860,10 +1860,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>64</v>
@@ -1872,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1883,10 +1883,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1895,7 +1895,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1906,10 +1906,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1918,7 +1918,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1929,10 +1929,10 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -1941,7 +1941,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1952,10 +1952,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E7">
         <v>41</v>
@@ -1964,7 +1964,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1975,10 +1975,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E8">
         <v>26</v>
@@ -1987,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1998,10 +1998,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E9">
         <v>16</v>
@@ -2010,7 +2010,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2021,10 +2021,10 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>72</v>
@@ -2033,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2044,10 +2044,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>23</v>
@@ -2056,7 +2056,7 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2067,10 +2067,10 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>24</v>
@@ -2079,7 +2079,7 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2090,10 +2090,10 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -2102,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2113,10 +2113,10 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>36</v>
@@ -2125,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2136,10 +2136,10 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>18</v>
@@ -2148,7 +2148,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2159,10 +2159,10 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>27</v>
@@ -2171,7 +2171,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2182,10 +2182,10 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -2194,7 +2194,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2205,10 +2205,10 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>12</v>
@@ -2217,7 +2217,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2228,10 +2228,10 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>22</v>
@@ -2240,7 +2240,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2251,10 +2251,10 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E20">
         <v>46</v>
@@ -2263,7 +2263,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2274,10 +2274,10 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -2286,7 +2286,7 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2297,10 +2297,10 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>56</v>
@@ -2309,7 +2309,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2320,10 +2320,10 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23">
         <v>49</v>
@@ -2332,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2343,10 +2343,10 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24">
         <v>56</v>
@@ -2355,7 +2355,7 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2366,10 +2366,10 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25">
         <v>26</v>
@@ -2378,7 +2378,7 @@
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2389,10 +2389,10 @@
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26">
         <v>8</v>
@@ -2401,7 +2401,7 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2412,10 +2412,10 @@
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -2424,7 +2424,7 @@
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2435,10 +2435,10 @@
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -2447,7 +2447,7 @@
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2455,13 +2455,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -2470,7 +2470,7 @@
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2481,10 +2481,10 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -2493,7 +2493,7 @@
         <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2504,10 +2504,10 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
         <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -2516,7 +2516,7 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2527,10 +2527,10 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32">
         <v>54</v>
@@ -2539,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2550,10 +2550,10 @@
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33">
         <v>16</v>
@@ -2562,7 +2562,7 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2570,13 +2570,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>465</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -2585,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2593,13 +2593,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>15</v>
@@ -2608,7 +2608,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2616,13 +2616,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36">
         <v>73</v>
@@ -2631,7 +2631,7 @@
         <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2639,13 +2639,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>24</v>
@@ -2654,7 +2654,7 @@
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2662,13 +2662,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -2677,7 +2677,7 @@
         <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2685,13 +2685,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39">
         <v>9</v>
@@ -2700,7 +2700,7 @@
         <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2708,13 +2708,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40">
         <v>27</v>
@@ -2723,7 +2723,7 @@
         <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2731,13 +2731,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E41">
         <v>23</v>
@@ -2746,7 +2746,7 @@
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2754,13 +2754,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42">
         <v>24</v>
@@ -2769,7 +2769,7 @@
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2777,13 +2777,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43">
         <v>32</v>
@@ -2792,7 +2792,7 @@
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2800,22 +2800,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44">
         <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2823,22 +2823,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E45">
         <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2846,22 +2846,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E46">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2869,13 +2869,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
@@ -2889,19 +2889,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E48" s="2">
         <v>51</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2909,13 +2909,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E49" s="2">
         <v>79</v>
@@ -2929,13 +2929,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E50" s="2">
         <v>87</v>
@@ -2949,13 +2949,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E51" s="2">
         <v>19</v>
@@ -2969,13 +2969,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
@@ -2989,13 +2989,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E53" s="2">
         <v>111</v>
@@ -3009,13 +3009,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E54" s="2">
         <v>125</v>
@@ -3029,13 +3029,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E55" s="2">
         <v>41</v>
@@ -3049,13 +3049,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2">
         <v>40</v>
@@ -3069,13 +3069,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E57" s="2">
         <v>90</v>
@@ -3089,13 +3089,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E58" s="2">
         <v>90</v>
@@ -3109,13 +3109,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E59" s="2">
         <v>68</v>
@@ -3129,13 +3129,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E60" s="2">
         <v>78</v>
@@ -3149,13 +3149,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E61" s="2">
         <v>28</v>
@@ -3169,13 +3169,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2">
         <v>58</v>
@@ -3189,13 +3189,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E63" s="2">
         <v>48</v>
@@ -3209,13 +3209,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E64" s="2">
         <v>19</v>
@@ -3229,13 +3229,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E65" s="2">
         <v>47</v>
@@ -3249,13 +3249,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E66" s="2">
         <v>57</v>
@@ -3269,13 +3269,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E67" s="2">
         <v>40</v>
@@ -3289,13 +3289,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E68" s="2">
         <v>42</v>
@@ -3309,13 +3309,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2">
         <v>43</v>
@@ -3329,13 +3329,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E70" s="2">
         <v>49</v>
@@ -3349,13 +3349,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E71" s="2">
         <v>22</v>
@@ -3369,13 +3369,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E72" s="2">
         <v>21</v>
@@ -3389,19 +3389,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D73" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E73" s="2">
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3409,13 +3409,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E74" s="2">
         <v>7</v>
@@ -3429,13 +3429,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E75" s="2">
         <v>16</v>
@@ -3449,13 +3449,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E76" s="2">
         <v>18</v>
@@ -3469,13 +3469,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E77" s="2">
         <v>38</v>
@@ -3489,13 +3489,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E78" s="2">
         <v>23</v>
@@ -3509,13 +3509,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E79" s="2">
         <v>37</v>
@@ -3529,13 +3529,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E80" s="2">
         <v>37</v>
@@ -3549,13 +3549,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E81" s="2">
         <v>33</v>
@@ -3569,13 +3569,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D82" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E82" s="2">
         <v>28</v>
@@ -3589,13 +3589,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E83" s="2">
         <v>32</v>
@@ -3609,13 +3609,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E84" s="2">
         <v>5</v>
@@ -3629,13 +3629,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E85" s="2">
         <v>7</v>
@@ -3649,13 +3649,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D86" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E86" s="2">
         <v>18</v>
@@ -3669,13 +3669,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C87" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E87" s="2">
         <v>4</v>
@@ -3689,19 +3689,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D88" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E88" s="2">
         <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3709,13 +3709,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E89" s="2">
         <v>13</v>
@@ -3729,13 +3729,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E90" s="2">
         <v>25</v>
@@ -3749,13 +3749,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D91" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E91" s="2">
         <v>13</v>
@@ -3769,13 +3769,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E92" s="2">
         <v>25</v>
@@ -3789,19 +3789,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E93" s="2">
         <v>15</v>
       </c>
       <c r="F93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3809,13 +3809,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D94" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E94" s="2">
         <v>11</v>
@@ -3829,13 +3829,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E95" s="2">
         <v>25</v>
@@ -3849,13 +3849,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D96" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E96" s="2">
         <v>9</v>
@@ -3869,13 +3869,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E97" s="2">
         <v>11</v>
@@ -3889,13 +3889,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D98" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E98" s="2">
         <v>4</v>
@@ -3909,13 +3909,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C99" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D99" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E99" s="2">
         <v>4</v>
@@ -3929,13 +3929,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E100" s="2">
         <v>17</v>
@@ -3949,19 +3949,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E101" s="2">
         <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3969,13 +3969,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C102" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E102" s="2">
         <v>4</v>
@@ -3989,13 +3989,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E103" s="2">
         <v>21</v>
@@ -4009,13 +4009,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D104" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E104" s="2">
         <v>23</v>
@@ -4029,13 +4029,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E105" s="2">
         <v>13</v>
@@ -4049,13 +4049,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D106" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E106" s="2">
         <v>11</v>
@@ -4069,13 +4069,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C107" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D107" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E107" s="2">
         <v>2</v>
@@ -4089,13 +4089,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E108" s="2">
         <v>10</v>
@@ -4109,13 +4109,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C109" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E109" s="2">
         <v>2</v>
@@ -4129,13 +4129,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E110" s="2">
         <v>18</v>
@@ -4149,13 +4149,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D111" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E111" s="2">
         <v>18</v>
@@ -4169,13 +4169,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C112" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D112" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E112" s="2">
         <v>13</v>
@@ -4189,13 +4189,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D113" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E113" s="2">
         <v>2</v>
@@ -4209,13 +4209,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C114" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E114" s="2">
         <v>2</v>
@@ -4229,13 +4229,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C115" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D115" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E115" s="2">
         <v>1</v>
@@ -4249,13 +4249,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E116" s="2">
         <v>12</v>
@@ -4269,13 +4269,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D117" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E117" s="2">
         <v>11</v>
@@ -4289,19 +4289,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D118" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E118" s="2">
         <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4309,13 +4309,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C119" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D119" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E119" s="2">
         <v>10</v>
@@ -4329,13 +4329,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E120" s="2">
         <v>7</v>
@@ -4349,13 +4349,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E121" s="2">
         <v>1</v>
@@ -4369,13 +4369,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C122" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E122" s="2">
         <v>9</v>
@@ -4389,13 +4389,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C123" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E123" s="2">
         <v>9</v>
@@ -4409,13 +4409,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C124" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D124" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E124" s="2">
         <v>1</v>
@@ -4429,13 +4429,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C125" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E125" s="2">
         <v>4</v>
@@ -4449,13 +4449,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C126" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D126" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E126" s="2">
         <v>2</v>
@@ -4469,13 +4469,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C127" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D127" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E127" s="2">
         <v>12</v>
@@ -4489,13 +4489,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C128" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D128" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E128" s="2">
         <v>1</v>
@@ -4509,13 +4509,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D129" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E129" s="2">
         <v>7</v>
@@ -4529,13 +4529,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D130" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E130" s="2">
         <v>8</v>
@@ -4549,13 +4549,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C131" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D131" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E131" s="2">
         <v>3</v>
@@ -4569,19 +4569,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C132" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D132" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E132" s="2">
         <v>3</v>
       </c>
       <c r="F132" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4589,13 +4589,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D133" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E133" s="2">
         <v>1</v>
@@ -4609,13 +4609,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E134" s="2">
         <v>5</v>
@@ -4629,13 +4629,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C135" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D135" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E135" s="2">
         <v>2</v>
@@ -4649,13 +4649,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D136" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E136" s="2">
         <v>5</v>
@@ -4669,13 +4669,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D137" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E137" s="2">
         <v>11</v>
@@ -4689,19 +4689,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C138" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D138" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E138" s="2">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4709,13 +4709,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C139" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D139" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E139" s="2">
         <v>6</v>
@@ -4729,13 +4729,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E140" s="2">
         <v>3</v>
@@ -4749,13 +4749,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C141" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D141" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E141" s="2">
         <v>2</v>
@@ -4769,19 +4769,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C142" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D142" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E142" s="2">
         <v>5</v>
       </c>
       <c r="F142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4789,13 +4789,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C143" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D143" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E143" s="2">
         <v>1</v>
@@ -4809,13 +4809,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C144" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D144" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E144" s="2">
         <v>1</v>
@@ -4829,19 +4829,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C145" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D145" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E145" s="2">
         <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4849,13 +4849,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C146" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D146" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E146" s="2">
         <v>1</v>
@@ -4869,13 +4869,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C147" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D147" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E147" s="2">
         <v>1</v>
@@ -4889,19 +4889,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D148" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E148" s="2">
         <v>6</v>
       </c>
       <c r="F148" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4909,13 +4909,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C149" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D149" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E149" s="2">
         <v>1</v>
@@ -4929,19 +4929,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C150" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D150" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E150" s="2">
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4949,13 +4949,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D151" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E151" s="2">
         <v>2</v>
@@ -4969,13 +4969,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C152" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D152" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E152" s="2">
         <v>4</v>
@@ -4989,13 +4989,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C153" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D153" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
@@ -5009,13 +5009,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C154" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D154" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E154" s="2">
         <v>4</v>
@@ -5029,13 +5029,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C155" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D155" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E155" s="2">
         <v>5</v>
@@ -5049,13 +5049,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D156" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E156" s="2">
         <v>3</v>
@@ -5069,13 +5069,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C157" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D157" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E157" s="2">
         <v>10</v>
@@ -5089,13 +5089,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C158" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D158" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E158" s="2">
         <v>1</v>
@@ -5109,13 +5109,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C159" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D159" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E159" s="2">
         <v>1</v>
@@ -5129,13 +5129,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C160" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D160" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E160" s="2">
         <v>1</v>
@@ -5149,19 +5149,19 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C161" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D161" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E161" s="2">
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5169,13 +5169,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C162" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D162" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E162" s="2">
         <v>1</v>
@@ -5189,13 +5189,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C163" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D163" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E163" s="2">
         <v>3</v>
@@ -5209,13 +5209,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C164" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D164" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E164" s="2">
         <v>1</v>
@@ -5229,13 +5229,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C165" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D165" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E165" s="2">
         <v>1</v>
@@ -5249,13 +5249,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C166" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D166" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E166" s="2">
         <v>2</v>
@@ -5269,13 +5269,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C167" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D167" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E167" s="2">
         <v>1</v>
@@ -5289,13 +5289,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C168" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D168" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E168" s="2">
         <v>2</v>
@@ -5309,13 +5309,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C169" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D169" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E169" s="2">
         <v>1</v>
@@ -5329,13 +5329,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C170" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D170" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E170" s="2">
         <v>2</v>
@@ -5349,13 +5349,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C171" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D171" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E171" s="2">
         <v>3</v>
@@ -5369,13 +5369,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C172" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D172" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E172" s="2">
         <v>2</v>
@@ -5389,13 +5389,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C173" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D173" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E173" s="2">
         <v>2</v>
@@ -5409,13 +5409,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C174" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D174" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E174" s="2">
         <v>3</v>
@@ -5429,13 +5429,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C175" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D175" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E175" s="2">
         <v>2</v>
@@ -5449,13 +5449,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C176" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D176" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E176" s="2">
         <v>1</v>
@@ -5469,13 +5469,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C177" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D177" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E177" s="2">
         <v>2</v>
@@ -5489,13 +5489,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C178" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D178" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E178" s="2">
         <v>1</v>
@@ -5509,13 +5509,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C179" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D179" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E179" s="2">
         <v>1</v>
@@ -5529,13 +5529,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C180" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D180" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E180" s="2">
         <v>1</v>
@@ -5549,13 +5549,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C181" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D181" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E181" s="2">
         <v>1</v>
@@ -5569,13 +5569,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C182" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D182" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E182" s="2">
         <v>1</v>
@@ -5589,13 +5589,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C183" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D183" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E183" s="2">
         <v>1</v>
@@ -5609,13 +5609,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C184" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D184" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E184" s="2">
         <v>1</v>
@@ -5629,13 +5629,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C185" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D185" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E185" s="2">
         <v>1</v>
@@ -5649,13 +5649,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C186" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D186" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E186" s="2">
         <v>1</v>
@@ -5669,13 +5669,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C187" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D187" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E187" s="2">
         <v>1</v>
@@ -5689,13 +5689,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C188" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D188" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E188" s="2">
         <v>1</v>
@@ -5709,13 +5709,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C189" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D189" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E189" s="2">
         <v>1</v>
@@ -5729,13 +5729,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C190" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D190" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E190" s="2">
         <v>1</v>
@@ -5749,13 +5749,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C191" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D191" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E191" s="2">
         <v>1</v>
@@ -5769,13 +5769,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C192" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D192" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E192" s="2">
         <v>1</v>
@@ -5789,13 +5789,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D193" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E193" s="2">
         <v>1</v>
@@ -5962,16 +5962,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>92</v>
-      </c>
-      <c r="I1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5979,17 +5979,17 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" t="str">
         <f>TRIM(B2)</f>
         <v>Travis Etienne </v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
@@ -6003,23 +6003,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">TRIM(B3)</f>
         <v>Keenan Allen </v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="1">
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6027,17 +6027,17 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>Saquon Barkley </v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1">
         <v>79</v>
@@ -6051,17 +6051,17 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>Ezekiel Elliott </v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1">
         <v>87</v>
@@ -6075,17 +6075,17 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>Chase Edmonds </v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="1">
         <v>19</v>
@@ -6099,17 +6099,17 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>Younghoe Koo </v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
@@ -6123,17 +6123,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>Dalvin Cook </v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="1">
         <v>111</v>
@@ -6147,17 +6147,17 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>Christian McCaffrey </v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1">
         <v>125</v>
@@ -6171,17 +6171,17 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>Amari Cooper </v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1">
         <v>41</v>
@@ -6195,17 +6195,17 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>Robert Woods </v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1">
         <v>40</v>
@@ -6219,17 +6219,17 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>Tyreek Hill </v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1">
         <v>90</v>
@@ -6243,17 +6243,17 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>DeAndre Hopkins </v>
       </c>
       <c r="D13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="1">
         <v>90</v>
@@ -6267,17 +6267,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>Clyde Edwards-Helaire </v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="1">
         <v>68</v>
@@ -6291,17 +6291,17 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>Najee Harris </v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1">
         <v>78</v>
@@ -6315,17 +6315,17 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>Russell Wilson </v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1">
         <v>28</v>
@@ -6339,17 +6339,17 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>Allen Robinson II </v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="1">
         <v>58</v>
@@ -6363,17 +6363,17 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>Mike Evans </v>
       </c>
       <c r="D18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="1">
         <v>48</v>
@@ -6387,17 +6387,17 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>Ja'Marr Chase </v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="1">
         <v>19</v>
@@ -6411,17 +6411,17 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>Lamar Jackson </v>
       </c>
       <c r="D20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="1">
         <v>47</v>
@@ -6435,17 +6435,17 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>Chris Godwin </v>
       </c>
       <c r="D21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="1">
         <v>57</v>
@@ -6459,17 +6459,17 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>Kyle Pitts </v>
       </c>
       <c r="D22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="1">
         <v>40</v>
@@ -6483,17 +6483,17 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>Julio Jones </v>
       </c>
       <c r="D23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="1">
         <v>42</v>
@@ -6507,17 +6507,17 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>D'Andre Swift </v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" s="1">
         <v>43</v>
@@ -6531,17 +6531,17 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>Adam Thielen </v>
       </c>
       <c r="D25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H25" s="1">
         <v>49</v>
@@ -6555,17 +6555,17 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>Michael Thomas </v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="1">
         <v>22</v>
@@ -6579,17 +6579,17 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>Melvin Gordon III </v>
       </c>
       <c r="D27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="1">
         <v>21</v>
@@ -6603,23 +6603,23 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>Jalen Hurts </v>
       </c>
       <c r="D28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" s="1">
         <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6627,17 +6627,17 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>Trevor Lawrence </v>
       </c>
       <c r="D29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" s="1">
         <v>7</v>
@@ -6651,17 +6651,17 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>James Conner </v>
       </c>
       <c r="D30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" s="1">
         <v>16</v>
@@ -6675,17 +6675,17 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>Logan Thomas </v>
       </c>
       <c r="D31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="1">
         <v>18</v>
@@ -6699,17 +6699,17 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>Josh Jacobs </v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H32" s="1">
         <v>38</v>
@@ -6723,17 +6723,17 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>Damien Harris </v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="1">
         <v>23</v>
@@ -6747,17 +6747,17 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v>Diontae Johnson </v>
       </c>
       <c r="D34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H34" s="1">
         <v>37</v>
@@ -6771,17 +6771,17 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>JuJu Smith-Schuster </v>
       </c>
       <c r="D35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H35" s="1">
         <v>37</v>
@@ -6795,17 +6795,17 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v>Mike Davis </v>
       </c>
       <c r="D36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H36" s="1">
         <v>33</v>
@@ -6819,17 +6819,17 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v>Tee Higgins </v>
       </c>
       <c r="D37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H37" s="1">
         <v>28</v>
@@ -6843,17 +6843,17 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>Kareem Hunt </v>
       </c>
       <c r="D38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H38" s="1">
         <v>32</v>
@@ -6867,17 +6867,17 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v>James White </v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" s="1">
         <v>5</v>
@@ -6891,17 +6891,17 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v>Deshaun Watson </v>
       </c>
       <c r="D40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H40" s="1">
         <v>7</v>
@@ -6915,17 +6915,17 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>Tyler Boyd </v>
       </c>
       <c r="D41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H41" s="1">
         <v>18</v>
@@ -6939,17 +6939,17 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v>Los Angeles </v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H42" s="1">
         <v>4</v>
@@ -6963,23 +6963,23 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>Mark Andrews </v>
       </c>
       <c r="D43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H43" s="1">
         <v>31</v>
       </c>
       <c r="I43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6987,17 +6987,17 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v>Tom Brady </v>
       </c>
       <c r="D44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H44" s="1">
         <v>13</v>
@@ -7011,17 +7011,17 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v>Trey Sermon </v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H45" s="1">
         <v>25</v>
@@ -7035,17 +7035,17 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v>Mike Williams </v>
       </c>
       <c r="D46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H46" s="1">
         <v>13</v>
@@ -7059,17 +7059,17 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
         <v>Tyler Higbee </v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H47" s="1">
         <v>25</v>
@@ -7083,23 +7083,23 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
         <v>Antonio Brown </v>
       </c>
       <c r="D48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48" s="1">
         <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7107,17 +7107,17 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
         <v>Brandin Cooks </v>
       </c>
       <c r="D49" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H49" s="1">
         <v>11</v>
@@ -7131,17 +7131,17 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v>Javonte Williams </v>
       </c>
       <c r="D50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H50" s="1">
         <v>25</v>
@@ -7155,17 +7155,17 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
         <v>Ryan Tannehill </v>
       </c>
       <c r="D51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51" s="1">
         <v>9</v>
@@ -7179,17 +7179,17 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
         <v>Jarvis Landry </v>
       </c>
       <c r="D52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H52" s="1">
         <v>11</v>
@@ -7203,17 +7203,17 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
         <v>Joe Burrow </v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H53" s="1">
         <v>4</v>
@@ -7227,17 +7227,17 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
         <v>Washington </v>
       </c>
       <c r="D54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H54" s="1">
         <v>4</v>
@@ -7251,17 +7251,17 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
         <v>Noah Fant </v>
       </c>
       <c r="D55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H55" s="1">
         <v>17</v>
@@ -7275,23 +7275,23 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
         <v>Raheem Mostert </v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H56" s="1">
         <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7299,17 +7299,17 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
         <v>Pittsburgh </v>
       </c>
       <c r="D57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H57" s="1">
         <v>4</v>
@@ -7323,17 +7323,17 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
         <v>Kenny Golladay </v>
       </c>
       <c r="D58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H58" s="1">
         <v>21</v>
@@ -7347,17 +7347,17 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
         <v>Courtland Sutton </v>
       </c>
       <c r="D59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H59" s="1">
         <v>23</v>
@@ -7371,17 +7371,17 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
         <v>Deebo Samuel </v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H60" s="1">
         <v>13</v>
@@ -7395,17 +7395,17 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
         <v>Will Fuller V </v>
       </c>
       <c r="D61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H61" s="1">
         <v>11</v>
@@ -7419,17 +7419,17 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
         <v>Justin Tucker </v>
       </c>
       <c r="D62" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H62" s="1">
         <v>2</v>
@@ -7443,17 +7443,17 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
         <v>Matthew Stafford </v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H63" s="1">
         <v>10</v>
@@ -7467,17 +7467,17 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
         <v>Harrison Butker </v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H64" s="1">
         <v>2</v>
@@ -7491,17 +7491,17 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
         <v>Ronald Jones II </v>
       </c>
       <c r="D65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H65" s="1">
         <v>18</v>
@@ -7515,17 +7515,17 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
         <v>Corey Davis </v>
       </c>
       <c r="D66" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H66" s="1">
         <v>18</v>
@@ -7539,17 +7539,17 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C130" si="1">TRIM(B67)</f>
         <v>Dallas Goedert </v>
       </c>
       <c r="D67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H67" s="1">
         <v>13</v>
@@ -7563,17 +7563,17 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
         <v>Cole Beasley </v>
       </c>
       <c r="D68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H68" s="1">
         <v>2</v>
@@ -7587,17 +7587,17 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
         <v>San Francisco </v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H69" s="1">
         <v>2</v>
@@ -7611,17 +7611,17 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
         <v>Nick Folk </v>
       </c>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H70" s="1">
         <v>1</v>
@@ -7635,17 +7635,17 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
         <v>Leonard Fournette </v>
       </c>
       <c r="D71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H71" s="1">
         <v>12</v>
@@ -7659,17 +7659,17 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
         <v>Michael Gallup </v>
       </c>
       <c r="D72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H72" s="1">
         <v>11</v>
@@ -7683,23 +7683,23 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
         <v>Marvin Jones Jr. </v>
       </c>
       <c r="D73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H73" s="1">
         <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7707,17 +7707,17 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
         <v>Laviska Shenault Jr. </v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H74" s="1">
         <v>10</v>
@@ -7731,17 +7731,17 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
         <v>David Johnson </v>
       </c>
       <c r="D75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H75" s="1">
         <v>7</v>
@@ -7755,17 +7755,17 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
         <v>Todd Gurley II </v>
       </c>
       <c r="D76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H76" s="1">
         <v>1</v>
@@ -7779,17 +7779,17 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
         <v>Kenyan Drake </v>
       </c>
       <c r="D77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H77" s="1">
         <v>9</v>
@@ -7803,17 +7803,17 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
         <v>Sony Michel </v>
       </c>
       <c r="D78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H78" s="1">
         <v>9</v>
@@ -7827,17 +7827,17 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
         <v>Ryan Succop </v>
       </c>
       <c r="D79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H79" s="1">
         <v>1</v>
@@ -7851,17 +7851,17 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
         <v>Tampa Bay </v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F80" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H80" s="1">
         <v>4</v>
@@ -7875,17 +7875,17 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
         <v>Baltimore </v>
       </c>
       <c r="D81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H81" s="1">
         <v>2</v>
@@ -7899,17 +7899,17 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
         <v>DeVonta Smith </v>
       </c>
       <c r="D82" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H82" s="1">
         <v>12</v>
@@ -7923,17 +7923,17 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
         <v>Tyler Bass </v>
       </c>
       <c r="D83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H83" s="1">
         <v>1</v>
@@ -7947,17 +7947,17 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
         <v>Irv Smith Jr. </v>
       </c>
       <c r="D84" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H84" s="1">
         <v>7</v>
@@ -7971,17 +7971,17 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
         <v>Jamison Crowder </v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H85" s="1">
         <v>8</v>
@@ -7995,17 +7995,17 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
         <v>Denver </v>
       </c>
       <c r="D86" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F86" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H86" s="1">
         <v>3</v>
@@ -8019,23 +8019,23 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
         <v>Matt Ryan </v>
       </c>
       <c r="D87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H87" s="1">
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8043,17 +8043,17 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
         <v>Cam Akers </v>
       </c>
       <c r="D88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H88" s="1">
         <v>1</v>
@@ -8067,17 +8067,17 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
         <v>Evan Engram </v>
       </c>
       <c r="D89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H89" s="1">
         <v>5</v>
@@ -8091,17 +8091,17 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
         <v>Parris Campbell </v>
       </c>
       <c r="D90" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H90" s="1">
         <v>2</v>
@@ -8115,17 +8115,17 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
         <v>Michael Pittman Jr. </v>
       </c>
       <c r="D91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H91" s="1">
         <v>5</v>
@@ -8139,17 +8139,17 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
         <v>DJ Chark Jr. </v>
       </c>
       <c r="D92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H92" s="1">
         <v>11</v>
@@ -8163,23 +8163,23 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
         <v>Cleveland </v>
       </c>
       <c r="D93" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H93" s="1">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8187,17 +8187,17 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
         <v>Mecole Hardman </v>
       </c>
       <c r="D94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H94" s="1">
         <v>6</v>
@@ -8211,17 +8211,17 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
         <v>Justin Fields </v>
       </c>
       <c r="D95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H95" s="1">
         <v>3</v>
@@ -8235,17 +8235,17 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
         <v>Kansas City </v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F96" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H96" s="1">
         <v>2</v>
@@ -8259,23 +8259,23 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
         <v>Curtis Samuel </v>
       </c>
       <c r="D97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H97" s="1">
         <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8283,17 +8283,17 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
         <v>New England </v>
       </c>
       <c r="D98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H98" s="1">
         <v>1</v>
@@ -8307,17 +8307,17 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
         <v>Sam Darnold </v>
       </c>
       <c r="D99" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H99" s="1">
         <v>1</v>
@@ -8331,23 +8331,23 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
         <v>AJ Dillon </v>
       </c>
       <c r="D100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H100" s="1">
         <v>11</v>
       </c>
       <c r="I100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8355,17 +8355,17 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
         <v>Matt Gay </v>
       </c>
       <c r="D101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F101" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H101" s="1">
         <v>1</v>
@@ -8379,17 +8379,17 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
         <v>Allen Lazard </v>
       </c>
       <c r="D102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H102" s="1">
         <v>1</v>
@@ -8403,23 +8403,23 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
         <v>Mike Gesicki </v>
       </c>
       <c r="D103" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H103" s="1">
         <v>6</v>
       </c>
       <c r="I103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8427,17 +8427,17 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
         <v>Carolina </v>
       </c>
       <c r="D104" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F104" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H104" s="1">
         <v>1</v>
@@ -8451,23 +8451,23 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
         <v>Greg Zuerlein </v>
       </c>
       <c r="D105" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F105" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H105" s="1">
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8475,17 +8475,17 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
         <v>Amon-Ra St. Brown </v>
       </c>
       <c r="D106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H106" s="1">
         <v>2</v>
@@ -8499,17 +8499,17 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
         <v>Phillip Lindsay </v>
       </c>
       <c r="D107" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H107" s="1">
         <v>4</v>
@@ -8523,17 +8523,17 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
         <v>Robbie Gould </v>
       </c>
       <c r="D108" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F108" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H108" s="1">
         <v>1</v>
@@ -8547,17 +8547,17 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
         <v>Darnell Mooney </v>
       </c>
       <c r="D109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H109" s="1">
         <v>4</v>
@@ -8571,17 +8571,17 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
         <v>Jaylen Waddle </v>
       </c>
       <c r="D110" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H110" s="1">
         <v>5</v>
@@ -8595,17 +8595,17 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
         <v>Kirk Cousins </v>
       </c>
       <c r="D111" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H111" s="1">
         <v>3</v>
@@ -8619,17 +8619,17 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
         <v>Marquez Callaway </v>
       </c>
       <c r="D112" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H112" s="1">
         <v>10</v>
@@ -8643,17 +8643,17 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
         <v>Tevin Coleman </v>
       </c>
       <c r="D113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H113" s="1">
         <v>1</v>
@@ -8667,17 +8667,17 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
         <v>Buffalo </v>
       </c>
       <c r="D114" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F114" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H114" s="1">
         <v>1</v>
@@ -8691,17 +8691,17 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
         <v>Jason Sanders </v>
       </c>
       <c r="D115" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F115" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H115" s="1">
         <v>1</v>
@@ -8715,23 +8715,23 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
         <v>Indianapolis </v>
       </c>
       <c r="D116" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F116" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H116" s="1">
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8739,17 +8739,17 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
         <v>Carson Wentz </v>
       </c>
       <c r="D117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H117" s="1">
         <v>1</v>
@@ -8763,17 +8763,17 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
         <v>Michael Carter </v>
       </c>
       <c r="D118" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F118" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H118" s="1">
         <v>3</v>
@@ -8787,17 +8787,17 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
         <v>Los Angeles </v>
       </c>
       <c r="D119" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F119" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H119" s="1">
         <v>1</v>
@@ -8811,17 +8811,17 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
         <v>Emmanuel Sanders </v>
       </c>
       <c r="D120" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H120" s="1">
         <v>1</v>
@@ -8835,17 +8835,17 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
         <v>Gabriel Davis </v>
       </c>
       <c r="D121" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F121" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H121" s="1">
         <v>2</v>
@@ -8859,17 +8859,17 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
         <v>Wil Lutz </v>
       </c>
       <c r="D122" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F122" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H122" s="1">
         <v>1</v>
@@ -8883,17 +8883,17 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
         <v>Russell Gage </v>
       </c>
       <c r="D123" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F123" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H123" s="1">
         <v>2</v>
@@ -8907,17 +8907,17 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
         <v>Jakobi Meyers </v>
       </c>
       <c r="D124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F124" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H124" s="1">
         <v>1</v>
@@ -8931,17 +8931,17 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
         <v>Elijah Moore </v>
       </c>
       <c r="D125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F125" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H125" s="1">
         <v>2</v>
@@ -8955,17 +8955,17 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
         <v>Hunter Henry </v>
       </c>
       <c r="D126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F126" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H126" s="1">
         <v>3</v>
@@ -8979,17 +8979,17 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
         <v>Marquise Brown </v>
       </c>
       <c r="D127" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F127" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H127" s="1">
         <v>2</v>
@@ -9003,17 +9003,17 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
         <v>Gerald Everett </v>
       </c>
       <c r="D128" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H128" s="1">
         <v>2</v>
@@ -9027,17 +9027,17 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
         <v>Gus Edwards </v>
       </c>
       <c r="D129" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F129" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H129" s="1">
         <v>3</v>
@@ -9051,17 +9051,17 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="1"/>
         <v>Tony Pollard </v>
       </c>
       <c r="D130" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F130" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H130" s="1">
         <v>2</v>
@@ -9075,17 +9075,17 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" ref="C131:C193" si="2">TRIM(B131)</f>
         <v>Rob Gronkowski </v>
       </c>
       <c r="D131" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H131" s="1">
         <v>1</v>
@@ -9099,17 +9099,17 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="2"/>
         <v>Jamaal Williams </v>
       </c>
       <c r="D132" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F132" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H132" s="1">
         <v>2</v>
@@ -9123,17 +9123,17 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="2"/>
         <v>John Brown </v>
       </c>
       <c r="D133" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F133" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H133" s="1">
         <v>1</v>
@@ -9147,17 +9147,17 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
         <v>Justice Hill </v>
       </c>
       <c r="D134" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H134" s="1">
         <v>1</v>
@@ -9171,17 +9171,17 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="2"/>
         <v>Devin Singletary </v>
       </c>
       <c r="D135" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F135" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H135" s="1">
         <v>1</v>
@@ -9195,17 +9195,17 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="2"/>
         <v>Juwan Johnson </v>
       </c>
       <c r="D136" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F136" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H136" s="1">
         <v>1</v>
@@ -9219,17 +9219,17 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="2"/>
         <v>T.Y. Hilton </v>
       </c>
       <c r="D137" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H137" s="1">
         <v>1</v>
@@ -9243,17 +9243,17 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="2"/>
         <v>Rhamondre Stevenson </v>
       </c>
       <c r="D138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F138" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H138" s="1">
         <v>1</v>
@@ -9267,17 +9267,17 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="2"/>
         <v>Latavius Murray </v>
       </c>
       <c r="D139" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F139" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H139" s="1">
         <v>1</v>
@@ -9291,17 +9291,17 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="2"/>
         <v>Ryan Fitzpatrick </v>
       </c>
       <c r="D140" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H140" s="1">
         <v>1</v>
@@ -9315,17 +9315,17 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="2"/>
         <v>Terrace Marshall Jr. </v>
       </c>
       <c r="D141" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F141" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H141" s="1">
         <v>1</v>
@@ -9339,17 +9339,17 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="2"/>
         <v>Chuba Hubbard </v>
       </c>
       <c r="D142" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F142" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H142" s="1">
         <v>1</v>
@@ -9363,17 +9363,17 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="2"/>
         <v>Cole Kmet </v>
       </c>
       <c r="D143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F143" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H143" s="1">
         <v>1</v>
@@ -9387,17 +9387,17 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="2"/>
         <v>Carlos Hyde </v>
       </c>
       <c r="D144" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F144" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H144" s="1">
         <v>1</v>
@@ -9411,17 +9411,17 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="2"/>
         <v>Brandon McManus </v>
       </c>
       <c r="D145" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F145" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H145" s="1">
         <v>1</v>
@@ -9435,17 +9435,17 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="2"/>
         <v>DeVante Parker </v>
       </c>
       <c r="D146" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F146" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H146" s="1">
         <v>1</v>
@@ -9459,17 +9459,17 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="2"/>
         <v>Nyheim Hines </v>
       </c>
       <c r="D147" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F147" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H147" s="1">
         <v>1</v>
@@ -9483,17 +9483,17 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="2"/>
         <v>New Orleans </v>
       </c>
       <c r="D148" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H148" s="1">
         <v>1</v>
@@ -9507,17 +9507,17 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="2"/>
         <v>Myles Gaskin </v>
       </c>
       <c r="D149" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F149" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H149" s="1">
         <v>11</v>
@@ -9531,17 +9531,17 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="2"/>
         <v>Austin Ekeler </v>
       </c>
       <c r="D150" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H150" s="1">
         <v>22</v>
@@ -9555,17 +9555,17 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="2"/>
         <v>Stefon Diggs </v>
       </c>
       <c r="D151" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F151" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H151" s="1">
         <v>46</v>
@@ -9579,17 +9579,17 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="2"/>
         <v>DK Metcalf </v>
       </c>
       <c r="D152" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H152" s="1">
         <v>12</v>
@@ -9603,17 +9603,17 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="2"/>
         <v>T.J. Hockenson </v>
       </c>
       <c r="D153" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F153" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H153" s="1">
         <v>10</v>
@@ -9627,17 +9627,17 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="2"/>
         <v>Darrell Henderson Jr. </v>
       </c>
       <c r="D154" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F154" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H154" s="1">
         <v>16</v>
@@ -9651,17 +9651,17 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="2"/>
         <v>David Montgomery </v>
       </c>
       <c r="D155" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F155" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H155" s="1">
         <v>54</v>
@@ -9675,17 +9675,17 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="2"/>
         <v>Aaron Rodgers </v>
       </c>
       <c r="D156" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F156" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H156" s="1">
         <v>15</v>
@@ -9699,17 +9699,17 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="2"/>
         <v>Odell Beckham Jr. </v>
       </c>
       <c r="D157" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H157" s="1">
         <v>5</v>
@@ -9723,17 +9723,17 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="2"/>
         <v>Jerry Jeudy </v>
       </c>
       <c r="D158" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H158" s="1">
         <v>5</v>
@@ -9747,17 +9747,17 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="2"/>
         <v>Jonathan Taylor </v>
       </c>
       <c r="D159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H159" s="1">
         <v>64</v>
@@ -9771,17 +9771,17 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="2"/>
         <v>Aaron Jones </v>
       </c>
       <c r="D160" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H160" s="1">
         <v>27</v>
@@ -9795,17 +9795,17 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="2"/>
         <v>Dak Prescott </v>
       </c>
       <c r="D161" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F161" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H161" s="1">
         <v>5</v>
@@ -9819,17 +9819,17 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="2"/>
         <v>George Kittle </v>
       </c>
       <c r="D162" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H162" s="1">
         <v>27</v>
@@ -9843,17 +9843,17 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="2"/>
         <v>Alvin Kamara </v>
       </c>
       <c r="D163" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H163" s="1">
         <v>36</v>
@@ -9867,17 +9867,17 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="2"/>
         <v>A.J. Brown </v>
       </c>
       <c r="D164" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F164" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H164" s="1">
         <v>18</v>
@@ -9891,23 +9891,23 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="2"/>
         <v>Chris Carson </v>
       </c>
       <c r="D165" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H165" s="1">
         <v>46</v>
       </c>
       <c r="I165" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9915,23 +9915,23 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="2"/>
         <v>Calvin Ridley </v>
       </c>
       <c r="D166" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F166" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H166" s="1">
         <v>48</v>
       </c>
       <c r="I166" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9939,23 +9939,23 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="2"/>
         <v>Justin Jefferson </v>
       </c>
       <c r="D167" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F167" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H167" s="1">
         <v>9</v>
       </c>
       <c r="I167" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9963,17 +9963,17 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="2"/>
         <v>Josh Allen </v>
       </c>
       <c r="D168" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F168" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H168" s="1">
         <v>23</v>
@@ -9987,17 +9987,17 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="2"/>
         <v>Antonio Gibson </v>
       </c>
       <c r="D169" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F169" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H169" s="1">
         <v>27</v>
@@ -10011,17 +10011,17 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="2"/>
         <v>Tyler Lockett </v>
       </c>
       <c r="D170" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F170" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H170" s="1">
         <v>32</v>
@@ -10035,17 +10035,17 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="2"/>
         <v>Kyler Murray </v>
       </c>
       <c r="D171" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F171" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H171" s="1">
         <v>24</v>
@@ -10059,17 +10059,17 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="2"/>
         <v>Zack Moss </v>
       </c>
       <c r="D172" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F172" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H172" s="1">
         <v>16</v>
@@ -10083,17 +10083,17 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="2"/>
         <v>Miles Sanders </v>
       </c>
       <c r="D173" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F173" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H173" s="1">
         <v>41</v>
@@ -10107,17 +10107,17 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="2"/>
         <v>DJ Moore </v>
       </c>
       <c r="D174" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F174" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H174" s="1">
         <v>26</v>
@@ -10131,17 +10131,17 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="2"/>
         <v>Davante Adams </v>
       </c>
       <c r="D175" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F175" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H175" s="1">
         <v>60</v>
@@ -10155,17 +10155,17 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
         <v>Justin Herbert </v>
       </c>
       <c r="D176" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F176" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H176" s="1">
         <v>5</v>
@@ -10179,17 +10179,17 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="2"/>
         <v>James Robinson </v>
       </c>
       <c r="D177" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F177" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H177" s="1">
         <v>5</v>
@@ -10203,17 +10203,17 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="2"/>
         <v>Robert Tonyan </v>
       </c>
       <c r="D178" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F178" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H178" s="1">
         <v>8</v>
@@ -10227,17 +10227,17 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="2"/>
         <v>J.K. Dobbins </v>
       </c>
       <c r="D179" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F179" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H179" s="1">
         <v>8</v>
@@ -10251,17 +10251,17 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="2"/>
         <v>Henry Ruggs III </v>
       </c>
       <c r="D180" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F180" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H180" s="1">
         <v>5</v>
@@ -10275,17 +10275,17 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="2"/>
         <v>Jonnu Smith </v>
       </c>
       <c r="D181" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F181" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H181" s="1">
         <v>8</v>
@@ -10299,17 +10299,17 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="2"/>
         <v>Darren Waller </v>
       </c>
       <c r="D182" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F182" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H182" s="1">
         <v>56</v>
@@ -10323,17 +10323,17 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="2"/>
         <v>Cooper Kupp </v>
       </c>
       <c r="D183" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F183" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H183" s="1">
         <v>26</v>
@@ -10347,17 +10347,17 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="2"/>
         <v>Joe Mixon </v>
       </c>
       <c r="D184" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F184" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H184" s="1">
         <v>72</v>
@@ -10371,17 +10371,17 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="2"/>
         <v>CeeDee Lamb </v>
       </c>
       <c r="D185" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F185" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H185" s="1">
         <v>23</v>
@@ -10395,17 +10395,17 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="2"/>
         <v>Robby Anderson </v>
       </c>
       <c r="D186" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F186" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H186" s="1">
         <v>6</v>
@@ -10419,17 +10419,17 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="2"/>
         <v>Patrick Mahomes </v>
       </c>
       <c r="D187" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F187" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H187" s="1">
         <v>24</v>
@@ -10443,17 +10443,17 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="2"/>
         <v>Travis Kelce </v>
       </c>
       <c r="D188" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F188" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H188" s="1">
         <v>73</v>
@@ -10467,17 +10467,17 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="2"/>
         <v>Nick Chubb </v>
       </c>
       <c r="D189" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F189" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H189" s="1">
         <v>24</v>
@@ -10491,17 +10491,17 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="2"/>
         <v>Chase Claypool </v>
       </c>
       <c r="D190" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F190" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H190" s="1">
         <v>5</v>
@@ -10515,17 +10515,17 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="2"/>
         <v>Brandon Aiyuk </v>
       </c>
       <c r="D191" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F191" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H191" s="1">
         <v>9</v>
@@ -10539,17 +10539,17 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="2"/>
         <v>Derrick Henry </v>
       </c>
       <c r="D192" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F192" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H192" s="1">
         <v>56</v>
@@ -10563,17 +10563,17 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="2"/>
         <v>Terry McLaurin </v>
       </c>
       <c r="D193" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F193" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H193" s="1">
         <v>49</v>
